--- a/Sesiones Prácticas/Día 4/metadatosSARS.xlsx
+++ b/Sesiones Prácticas/Día 4/metadatosSARS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harui\Documents\ins\00_Wellcome\tipificacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harui\Documents\curso internacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D64DE9-210C-45E0-9860-3932DF599369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DDE77E-73C3-4407-A8BA-AF508B1E0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="9976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,324 +71,6 @@
     <t>strain</t>
   </si>
   <si>
-    <t>muestra01_new</t>
-  </si>
-  <si>
-    <t>muestra02_new</t>
-  </si>
-  <si>
-    <t>muestra03_new</t>
-  </si>
-  <si>
-    <t>muestra04_new</t>
-  </si>
-  <si>
-    <t>muestra05_new</t>
-  </si>
-  <si>
-    <t>muestra06_new</t>
-  </si>
-  <si>
-    <t>muestra07_new</t>
-  </si>
-  <si>
-    <t>muestra08_new</t>
-  </si>
-  <si>
-    <t>muestra09_new</t>
-  </si>
-  <si>
-    <t>muestra10_new</t>
-  </si>
-  <si>
-    <t>muestra11_new</t>
-  </si>
-  <si>
-    <t>muestra12_new</t>
-  </si>
-  <si>
-    <t>muestra13_new</t>
-  </si>
-  <si>
-    <t>muestra14_new</t>
-  </si>
-  <si>
-    <t>muestra15_new</t>
-  </si>
-  <si>
-    <t>muestra16_new</t>
-  </si>
-  <si>
-    <t>muestra17_new</t>
-  </si>
-  <si>
-    <t>muestra18_new</t>
-  </si>
-  <si>
-    <t>muestra19_new</t>
-  </si>
-  <si>
-    <t>muestra20_new</t>
-  </si>
-  <si>
-    <t>muestra21_new</t>
-  </si>
-  <si>
-    <t>muestra22_new</t>
-  </si>
-  <si>
-    <t>muestra23_new</t>
-  </si>
-  <si>
-    <t>muestra24_new</t>
-  </si>
-  <si>
-    <t>muestra25_new</t>
-  </si>
-  <si>
-    <t>muestra26_new</t>
-  </si>
-  <si>
-    <t>muestra27_new</t>
-  </si>
-  <si>
-    <t>muestra28_new</t>
-  </si>
-  <si>
-    <t>muestra29_new</t>
-  </si>
-  <si>
-    <t>muestra30_new</t>
-  </si>
-  <si>
-    <t>muestra31_new</t>
-  </si>
-  <si>
-    <t>muestra32_new</t>
-  </si>
-  <si>
-    <t>muestra33_new</t>
-  </si>
-  <si>
-    <t>muestra34_new</t>
-  </si>
-  <si>
-    <t>muestra35_new</t>
-  </si>
-  <si>
-    <t>muestra36_new</t>
-  </si>
-  <si>
-    <t>muestra37_new</t>
-  </si>
-  <si>
-    <t>muestra38_new</t>
-  </si>
-  <si>
-    <t>muestra39_new</t>
-  </si>
-  <si>
-    <t>muestra40_new</t>
-  </si>
-  <si>
-    <t>muestra41_new</t>
-  </si>
-  <si>
-    <t>muestra42_new</t>
-  </si>
-  <si>
-    <t>muestra43_new</t>
-  </si>
-  <si>
-    <t>muestra44_new</t>
-  </si>
-  <si>
-    <t>muestra45_new</t>
-  </si>
-  <si>
-    <t>muestra46_new</t>
-  </si>
-  <si>
-    <t>muestra47_new</t>
-  </si>
-  <si>
-    <t>muestra48_new</t>
-  </si>
-  <si>
-    <t>muestra49_new</t>
-  </si>
-  <si>
-    <t>muestra50_new</t>
-  </si>
-  <si>
-    <t>muestra51_new</t>
-  </si>
-  <si>
-    <t>muestra52_new</t>
-  </si>
-  <si>
-    <t>muestra53_new</t>
-  </si>
-  <si>
-    <t>muestra54_new</t>
-  </si>
-  <si>
-    <t>muestra55_new</t>
-  </si>
-  <si>
-    <t>muestra56_new</t>
-  </si>
-  <si>
-    <t>muestra57_new</t>
-  </si>
-  <si>
-    <t>muestra58_new</t>
-  </si>
-  <si>
-    <t>muestra59_new</t>
-  </si>
-  <si>
-    <t>muestra60_new</t>
-  </si>
-  <si>
-    <t>muestra61_new</t>
-  </si>
-  <si>
-    <t>muestra62_new</t>
-  </si>
-  <si>
-    <t>muestra63_new</t>
-  </si>
-  <si>
-    <t>muestra64_new</t>
-  </si>
-  <si>
-    <t>muestra65_new</t>
-  </si>
-  <si>
-    <t>muestra66_new</t>
-  </si>
-  <si>
-    <t>muestra67_new</t>
-  </si>
-  <si>
-    <t>muestra68_new</t>
-  </si>
-  <si>
-    <t>muestra69_new</t>
-  </si>
-  <si>
-    <t>muestra70_new</t>
-  </si>
-  <si>
-    <t>muestra71_new</t>
-  </si>
-  <si>
-    <t>muestra72_new</t>
-  </si>
-  <si>
-    <t>muestra73_new</t>
-  </si>
-  <si>
-    <t>muestra74_new</t>
-  </si>
-  <si>
-    <t>muestra75_new</t>
-  </si>
-  <si>
-    <t>muestra76_new</t>
-  </si>
-  <si>
-    <t>muestra77_new</t>
-  </si>
-  <si>
-    <t>muestra78_new</t>
-  </si>
-  <si>
-    <t>muestra79_new</t>
-  </si>
-  <si>
-    <t>muestra80_new</t>
-  </si>
-  <si>
-    <t>muestra81_new</t>
-  </si>
-  <si>
-    <t>muestra82_new</t>
-  </si>
-  <si>
-    <t>muestra83_new</t>
-  </si>
-  <si>
-    <t>muestra84_new</t>
-  </si>
-  <si>
-    <t>muestra85_new</t>
-  </si>
-  <si>
-    <t>muestra86_new</t>
-  </si>
-  <si>
-    <t>muestra87_new</t>
-  </si>
-  <si>
-    <t>muestra88_new</t>
-  </si>
-  <si>
-    <t>muestra89_new</t>
-  </si>
-  <si>
-    <t>muestra90_new</t>
-  </si>
-  <si>
-    <t>muestra91_new</t>
-  </si>
-  <si>
-    <t>muestra92_new</t>
-  </si>
-  <si>
-    <t>muestra93_new</t>
-  </si>
-  <si>
-    <t>muestra94_new</t>
-  </si>
-  <si>
-    <t>muestra95_new</t>
-  </si>
-  <si>
-    <t>muestra96_new</t>
-  </si>
-  <si>
-    <t>muestra97_new</t>
-  </si>
-  <si>
-    <t>muestra98_new</t>
-  </si>
-  <si>
-    <t>muestra99_new</t>
-  </si>
-  <si>
-    <t>muestra100_new</t>
-  </si>
-  <si>
-    <t>muestra101_new</t>
-  </si>
-  <si>
-    <t>muestra102_new</t>
-  </si>
-  <si>
-    <t>muestra103_new</t>
-  </si>
-  <si>
-    <t>muestra104_new</t>
-  </si>
-  <si>
-    <t>muestra105_new</t>
-  </si>
-  <si>
-    <t>muestra106_new</t>
-  </si>
-  <si>
     <t>Antioquia</t>
   </si>
   <si>
@@ -414,6 +96,324 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>muestra01</t>
+  </si>
+  <si>
+    <t>muestra02</t>
+  </si>
+  <si>
+    <t>muestra03</t>
+  </si>
+  <si>
+    <t>muestra04</t>
+  </si>
+  <si>
+    <t>muestra05</t>
+  </si>
+  <si>
+    <t>muestra06</t>
+  </si>
+  <si>
+    <t>muestra07</t>
+  </si>
+  <si>
+    <t>muestra08</t>
+  </si>
+  <si>
+    <t>muestra09</t>
+  </si>
+  <si>
+    <t>muestra10</t>
+  </si>
+  <si>
+    <t>muestra11</t>
+  </si>
+  <si>
+    <t>muestra12</t>
+  </si>
+  <si>
+    <t>muestra13</t>
+  </si>
+  <si>
+    <t>muestra14</t>
+  </si>
+  <si>
+    <t>muestra15</t>
+  </si>
+  <si>
+    <t>muestra16</t>
+  </si>
+  <si>
+    <t>muestra17</t>
+  </si>
+  <si>
+    <t>muestra18</t>
+  </si>
+  <si>
+    <t>muestra19</t>
+  </si>
+  <si>
+    <t>muestra20</t>
+  </si>
+  <si>
+    <t>muestra21</t>
+  </si>
+  <si>
+    <t>muestra22</t>
+  </si>
+  <si>
+    <t>muestra23</t>
+  </si>
+  <si>
+    <t>muestra24</t>
+  </si>
+  <si>
+    <t>muestra25</t>
+  </si>
+  <si>
+    <t>muestra26</t>
+  </si>
+  <si>
+    <t>muestra27</t>
+  </si>
+  <si>
+    <t>muestra28</t>
+  </si>
+  <si>
+    <t>muestra29</t>
+  </si>
+  <si>
+    <t>muestra30</t>
+  </si>
+  <si>
+    <t>muestra31</t>
+  </si>
+  <si>
+    <t>muestra32</t>
+  </si>
+  <si>
+    <t>muestra33</t>
+  </si>
+  <si>
+    <t>muestra34</t>
+  </si>
+  <si>
+    <t>muestra35</t>
+  </si>
+  <si>
+    <t>muestra36</t>
+  </si>
+  <si>
+    <t>muestra37</t>
+  </si>
+  <si>
+    <t>muestra38</t>
+  </si>
+  <si>
+    <t>muestra39</t>
+  </si>
+  <si>
+    <t>muestra40</t>
+  </si>
+  <si>
+    <t>muestra41</t>
+  </si>
+  <si>
+    <t>muestra42</t>
+  </si>
+  <si>
+    <t>muestra43</t>
+  </si>
+  <si>
+    <t>muestra44</t>
+  </si>
+  <si>
+    <t>muestra45</t>
+  </si>
+  <si>
+    <t>muestra46</t>
+  </si>
+  <si>
+    <t>muestra47</t>
+  </si>
+  <si>
+    <t>muestra48</t>
+  </si>
+  <si>
+    <t>muestra49</t>
+  </si>
+  <si>
+    <t>muestra50</t>
+  </si>
+  <si>
+    <t>muestra51</t>
+  </si>
+  <si>
+    <t>muestra52</t>
+  </si>
+  <si>
+    <t>muestra53</t>
+  </si>
+  <si>
+    <t>muestra54</t>
+  </si>
+  <si>
+    <t>muestra55</t>
+  </si>
+  <si>
+    <t>muestra56</t>
+  </si>
+  <si>
+    <t>muestra57</t>
+  </si>
+  <si>
+    <t>muestra58</t>
+  </si>
+  <si>
+    <t>muestra59</t>
+  </si>
+  <si>
+    <t>muestra60</t>
+  </si>
+  <si>
+    <t>muestra61</t>
+  </si>
+  <si>
+    <t>muestra62</t>
+  </si>
+  <si>
+    <t>muestra63</t>
+  </si>
+  <si>
+    <t>muestra64</t>
+  </si>
+  <si>
+    <t>muestra65</t>
+  </si>
+  <si>
+    <t>muestra66</t>
+  </si>
+  <si>
+    <t>muestra67</t>
+  </si>
+  <si>
+    <t>muestra68</t>
+  </si>
+  <si>
+    <t>muestra69</t>
+  </si>
+  <si>
+    <t>muestra70</t>
+  </si>
+  <si>
+    <t>muestra71</t>
+  </si>
+  <si>
+    <t>muestra72</t>
+  </si>
+  <si>
+    <t>muestra73</t>
+  </si>
+  <si>
+    <t>muestra74</t>
+  </si>
+  <si>
+    <t>muestra75</t>
+  </si>
+  <si>
+    <t>muestra76</t>
+  </si>
+  <si>
+    <t>muestra77</t>
+  </si>
+  <si>
+    <t>muestra78</t>
+  </si>
+  <si>
+    <t>muestra79</t>
+  </si>
+  <si>
+    <t>muestra80</t>
+  </si>
+  <si>
+    <t>muestra81</t>
+  </si>
+  <si>
+    <t>muestra82</t>
+  </si>
+  <si>
+    <t>muestra83</t>
+  </si>
+  <si>
+    <t>muestra84</t>
+  </si>
+  <si>
+    <t>muestra85</t>
+  </si>
+  <si>
+    <t>muestra86</t>
+  </si>
+  <si>
+    <t>muestra87</t>
+  </si>
+  <si>
+    <t>muestra88</t>
+  </si>
+  <si>
+    <t>muestra89</t>
+  </si>
+  <si>
+    <t>muestra90</t>
+  </si>
+  <si>
+    <t>muestra91</t>
+  </si>
+  <si>
+    <t>muestra92</t>
+  </si>
+  <si>
+    <t>muestra93</t>
+  </si>
+  <si>
+    <t>muestra94</t>
+  </si>
+  <si>
+    <t>muestra95</t>
+  </si>
+  <si>
+    <t>muestra96</t>
+  </si>
+  <si>
+    <t>muestra97</t>
+  </si>
+  <si>
+    <t>muestra98</t>
+  </si>
+  <si>
+    <t>muestra99</t>
+  </si>
+  <si>
+    <t>muestra100</t>
+  </si>
+  <si>
+    <t>muestra101</t>
+  </si>
+  <si>
+    <t>muestra102</t>
+  </si>
+  <si>
+    <t>muestra103</t>
+  </si>
+  <si>
+    <t>muestra104</t>
+  </si>
+  <si>
+    <t>muestra105</t>
+  </si>
+  <si>
+    <t>muestra106</t>
   </si>
 </sst>
 </file>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -764,21 +764,21 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>45207</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -798,13 +798,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>45203</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -824,13 +824,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>45203</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>45202</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>45204</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -902,13 +902,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>45207</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>45212</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -954,13 +954,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>45219</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>45212</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
         <v>45222</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45225</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45216</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>45201</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>45208</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1136,13 +1136,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>45215</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1162,13 +1162,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>45210</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>45231</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>45219</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>45209</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>45262</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>45263</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>45264</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>45266</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>45265</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>45270</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>45233</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>45260</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>45257</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>45239</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>45239</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>45240</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>45241</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>45241</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>45267</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>45266</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>45252</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>45258</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>45247</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>45258</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>45258</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>45283</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -1838,13 +1838,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>45283</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>45290</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>45288</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -1916,13 +1916,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>45288</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>45237</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>45258</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>45257</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>45235</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1">
         <v>45251</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>45238</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1">
         <v>45250</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1">
         <v>45223</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2150,13 +2150,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1">
         <v>45228</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -2176,13 +2176,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1">
         <v>45253</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2202,13 +2202,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <v>45253</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1">
         <v>45290</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1">
         <v>45290</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -2280,13 +2280,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1">
         <v>45290</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1">
         <v>45290</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2332,13 +2332,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1">
         <v>45290</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2358,13 +2358,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1">
         <v>45290</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -2384,13 +2384,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1">
         <v>45290</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -2410,13 +2410,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1">
         <v>45290</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1">
         <v>45290</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1">
         <v>45290</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
         <v>45290</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1">
         <v>45290</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1">
         <v>45290</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1">
         <v>45290</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1">
         <v>45290</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1">
         <v>45290</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1">
         <v>45290</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1">
         <v>45290</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -2696,13 +2696,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>45290</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1">
         <v>45290</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
         <v>45290</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1">
         <v>45290</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1">
         <v>45290</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1">
         <v>45290</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1">
         <v>45290</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1">
         <v>45290</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -2904,13 +2904,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1">
         <v>45290</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1">
         <v>45290</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B86" s="1">
         <v>45290</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B87" s="1">
         <v>45290</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B88" s="1">
         <v>45290</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -3034,13 +3034,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B89" s="1">
         <v>45290</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1">
         <v>45290</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -3086,13 +3086,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B91" s="1">
         <v>45290</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3112,13 +3112,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B92" s="1">
         <v>45290</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B93" s="1">
         <v>45290</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B94" s="1">
         <v>45284</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B95" s="1">
         <v>45284</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B96" s="1">
         <v>45290</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3242,13 +3242,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B97" s="1">
         <v>45290</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B98" s="1">
         <v>45290</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -3294,13 +3294,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1">
         <v>45290</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B100" s="1">
         <v>45290</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B101" s="1">
         <v>45290</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1">
         <v>45290</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
@@ -3398,13 +3398,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1">
         <v>45283</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B104" s="1">
         <v>45290</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -3450,13 +3450,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1">
         <v>45290</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -3476,13 +3476,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B106" s="1">
         <v>45290</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3502,13 +3502,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B107" s="1">
         <v>45290</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
